--- a/(나무)   ---.xlsx
+++ b/(나무)   ---.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BOOK_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563A725C-4BC3-43EE-B071-C0C47B215644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EC579-363F-42A0-A837-6EB2ECB46246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,11 +518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4B2070-8558-4FD6-9FB6-E08FA4FA0C3A}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="103.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
@@ -530,7 +528,7 @@
     <col min="6" max="6" width="25.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -590,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -610,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -650,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,7 +688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -710,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -730,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -750,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -770,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -790,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -810,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -830,7 +828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,7 +848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -870,7 +868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -890,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -930,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -950,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -970,7 +968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -990,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1030,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1070,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
